--- a/Requirement_List(수정).xlsx
+++ b/Requirement_List(수정).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\소공\과제 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF55A2-8C7F-4137-BBE7-F7FA7279493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446295E2-A1F1-47F4-B3F3-BC182409B673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7782EDE-5287-4B5C-A1A9-6767F19B4F5E}"/>
   </bookViews>
@@ -98,11 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자는 시스템 접속 종료 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 접속 종료</t>
+    <t>사용자는 프로그램 종료 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +569,7 @@
   <dimension ref="C1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Requirement_List(수정).xlsx
+++ b/Requirement_List(수정).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\소공\과제 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SW_Bogyeong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446295E2-A1F1-47F4-B3F3-BC182409B673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9777E-01FE-4200-9D2B-9A9FC8DD55B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7782EDE-5287-4B5C-A1A9-6767F19B4F5E}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자와 회원은 로그아웃 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>프로그램 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와 회원은 로그아웃 가능, 해당 계정으로 시스템 접속 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +569,7 @@
   <dimension ref="C1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="3" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -607,7 +607,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
@@ -640,10 +640,10 @@
         <v>3.1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
@@ -651,10 +651,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="33.6" x14ac:dyDescent="0.4">
@@ -662,10 +662,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.4">
@@ -673,10 +673,10 @@
         <v>6.1</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
